--- a/Labs/Lab04-Authorization/Lab4IRubric-Authorization.xlsx
+++ b/Labs/Lab04-Authorization/Lab4IRubric-Authorization.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS296N-CourseMaterials/Labs/Lab04-Authorization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab04-Authorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90636A-AA07-E043-B622-C5CDEF989D13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4B0B1-05C9-4316-AEBA-2CCB645EFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="1500" windowWidth="14140" windowHeight="12360" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="33792" yWindow="4560" windowWidth="11688" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
     <sheet name="Grading" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Possible</t>
   </si>
@@ -80,6 +91,15 @@
   </si>
   <si>
     <t>Redirect unauthorized</t>
+  </si>
+  <si>
+    <t>Redirect to login</t>
+  </si>
+  <si>
+    <t>Redirect to unauthorized</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -458,140 +478,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A5EE8C-E354-4001-86CD-B2CD9C47B920}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D4:D18)</f>
+      <c r="C21">
+        <f>SUM(C4:C19)</f>
         <v>50</v>
       </c>
     </row>
@@ -602,183 +630,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D4:D18)</f>
+      <c r="C21">
+        <f>SUM(C4:C19)</f>
         <v>50</v>
       </c>
-      <c r="E20">
-        <f>SUM(E4:E18)</f>
+      <c r="D21">
+        <f>SUM(D4:D19)</f>
         <v>50</v>
       </c>
     </row>
